--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\30.analysis\320.environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[브라보 마이 라이프] 기능 요구사항 명세서(2차 초안)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[좋아요] 상단에서 좋아요 아이콘을  표시한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,6 +659,10 @@
   </si>
   <si>
     <t>상세정보에서 찜 기능이 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[브라보 마이 라이프] 기능 요구사항 명세서(3차 초안)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,6 +923,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +954,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,54 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,15 +1298,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1344,20 +1344,20 @@
       <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -1365,9 +1365,9 @@
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="23" t="s">
         <v>42</v>
       </c>
@@ -1378,14 +1378,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G6" s="23"/>
     </row>
@@ -1393,10 +1393,10 @@
       <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1408,12 +1408,12 @@
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1421,14 +1421,14 @@
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -1436,9 +1436,9 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
@@ -1449,27 +1449,27 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1477,10 +1477,10 @@
       <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1492,10 +1492,10 @@
       <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1505,14 +1505,14 @@
       <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -1520,10 +1520,10 @@
       <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1533,12 +1533,12 @@
       <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -1546,29 +1546,29 @@
       <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -1576,10 +1576,10 @@
       <c r="A20" s="21">
         <v>13</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1591,12 +1591,12 @@
       <c r="A21" s="21">
         <v>14</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -1604,11 +1604,11 @@
       <c r="A22" s="21">
         <v>15</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24" t="s">
-        <v>155</v>
+      <c r="B22" s="43"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
@@ -1619,10 +1619,10 @@
       <c r="A23" s="21">
         <v>16</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="A24" s="21">
         <v>17</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
@@ -1645,10 +1645,10 @@
       <c r="A25" s="21">
         <v>18</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="5" t="s">
         <v>81</v>
       </c>
@@ -1658,14 +1658,14 @@
       <c r="A26" s="21">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -1673,12 +1673,12 @@
       <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -1686,14 +1686,14 @@
       <c r="A28" s="21">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="40" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="28" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -1701,10 +1701,10 @@
       <c r="A29" s="21">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="41" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -1716,12 +1716,12 @@
       <c r="A30" s="21">
         <v>23</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1729,14 +1729,14 @@
       <c r="A31" s="21">
         <v>24</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -1744,14 +1744,14 @@
       <c r="A32" s="21">
         <v>25</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="41" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="38" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="13"/>
     </row>
@@ -1759,10 +1759,10 @@
       <c r="A33" s="21">
         <v>26</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="5" t="s">
         <v>80</v>
       </c>
@@ -1772,12 +1772,12 @@
       <c r="A34" s="21">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1785,10 +1785,10 @@
       <c r="A35" s="21">
         <v>28</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="39" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -1800,16 +1800,16 @@
       <c r="A36" s="21">
         <v>29</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>141</v>
+      <c r="E36" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -1817,10 +1817,10 @@
       <c r="A37" s="21">
         <v>30</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="5" t="s">
         <v>47</v>
       </c>
@@ -1828,12 +1828,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="23"/>
     </row>
@@ -1841,9 +1841,9 @@
       <c r="A39" s="21">
         <v>31</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="18" t="s">
         <v>88</v>
       </c>
@@ -1856,9 +1856,9 @@
       <c r="A40" s="21">
         <v>32</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="22" t="s">
         <v>89</v>
       </c>
@@ -1869,25 +1869,25 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="32" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G42" s="23"/>
     </row>
@@ -1895,12 +1895,12 @@
       <c r="A43" s="21">
         <v>33</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G43" s="10"/>
     </row>
@@ -1908,12 +1908,12 @@
       <c r="A44" s="21">
         <v>34</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="32" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="14" t="s">
@@ -1925,12 +1925,12 @@
       <c r="A45" s="21">
         <v>35</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -1938,10 +1938,10 @@
       <c r="A46" s="21">
         <v>36</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -1953,10 +1953,10 @@
       <c r="A47" s="21">
         <v>37</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="12" t="s">
         <v>91</v>
       </c>
@@ -1966,10 +1966,10 @@
       <c r="A48" s="21">
         <v>38</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="12" t="s">
         <v>92</v>
       </c>
@@ -1979,12 +1979,12 @@
       <c r="A49" s="21">
         <v>39</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -1992,14 +1992,14 @@
       <c r="A50" s="21">
         <v>40</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="24" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>156</v>
+      <c r="F50" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="G50" s="13"/>
     </row>
@@ -2007,11 +2007,11 @@
       <c r="A51" s="21">
         <v>41</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="38" t="s">
+      <c r="B51" s="43"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="26" t="s">
         <v>93</v>
       </c>
       <c r="G51" s="13"/>
@@ -2020,10 +2020,10 @@
       <c r="A52" s="21">
         <v>42</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="17" t="s">
         <v>94</v>
       </c>
@@ -2033,10 +2033,10 @@
       <c r="A53" s="21">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="17" t="s">
         <v>38</v>
       </c>
@@ -2046,12 +2046,12 @@
       <c r="A54" s="21">
         <v>44</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="44" t="s">
-        <v>119</v>
+      <c r="B54" s="43"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -2059,9 +2059,9 @@
       <c r="A55" s="21">
         <v>45</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="24" t="s">
+      <c r="B55" s="43"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="15" t="s">
@@ -2076,9 +2076,9 @@
       <c r="A56" s="21">
         <v>46</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="15" t="s">
         <v>22</v>
       </c>
@@ -2091,14 +2091,14 @@
       <c r="A57" s="21">
         <v>47</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="24" t="s">
+      <c r="B57" s="43"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -2106,10 +2106,10 @@
       <c r="A58" s="21">
         <v>48</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="5" t="s">
         <v>24</v>
       </c>
@@ -2119,12 +2119,12 @@
       <c r="A59" s="21">
         <v>49</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -2132,12 +2132,12 @@
       <c r="A60" s="21">
         <v>50</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G60" s="13"/>
     </row>
@@ -2145,9 +2145,9 @@
       <c r="A61" s="21">
         <v>51</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="25"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="15" t="s">
         <v>30</v>
       </c>
@@ -2158,16 +2158,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="32" t="s">
+      <c r="B62" s="43"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="35" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="23"/>
     </row>
@@ -2175,14 +2175,14 @@
       <c r="A63" s="21">
         <v>52</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="35" t="s">
+      <c r="B63" s="43"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="15"/>
     </row>
@@ -2190,10 +2190,10 @@
       <c r="A64" s="21">
         <v>53</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="36" t="s">
+      <c r="B64" s="43"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="41" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="20" t="s">
@@ -2205,10 +2205,10 @@
       <c r="A65" s="21">
         <v>54</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="37"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="20" t="s">
         <v>97</v>
       </c>
@@ -2218,10 +2218,10 @@
       <c r="A66" s="21">
         <v>55</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="37"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="20" t="s">
         <v>76</v>
       </c>
@@ -2229,66 +2229,66 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="43"/>
+      <c r="C67" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>137</v>
+      <c r="D67" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G67" s="23"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G68" s="23"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="31" t="s">
-        <v>143</v>
+      <c r="B69" s="43"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>148</v>
       </c>
       <c r="G71" s="23"/>
     </row>
@@ -2296,9 +2296,9 @@
       <c r="A72" s="21">
         <v>56</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="24" t="s">
+      <c r="B72" s="43"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="32" t="s">
         <v>49</v>
       </c>
       <c r="E72" s="15" t="s">
@@ -2313,14 +2313,14 @@
       <c r="A73" s="21">
         <v>57</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="10"/>
     </row>
@@ -2328,9 +2328,9 @@
       <c r="A74" s="21">
         <v>58</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="15" t="s">
         <v>51</v>
       </c>
@@ -2343,15 +2343,15 @@
       <c r="A75" s="21">
         <v>59</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="24" t="s">
+      <c r="B75" s="43"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="32" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="31" t="s">
         <v>98</v>
       </c>
       <c r="G75" s="10"/>
@@ -2360,14 +2360,14 @@
       <c r="A76" s="21">
         <v>60</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G76" s="10"/>
     </row>
@@ -2375,14 +2375,14 @@
       <c r="A77" s="21">
         <v>61</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G77" s="10"/>
     </row>
@@ -2390,16 +2390,16 @@
       <c r="A78" s="21">
         <v>62</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24" t="s">
+      <c r="B78" s="43"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G78" s="10"/>
     </row>
@@ -2407,14 +2407,14 @@
       <c r="A79" s="21">
         <v>63</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G79" s="10"/>
     </row>
@@ -2422,14 +2422,14 @@
       <c r="A80" s="21">
         <v>64</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G80" s="10"/>
     </row>
@@ -2437,16 +2437,16 @@
       <c r="A81" s="21">
         <v>65</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="24" t="s">
+      <c r="B81" s="43"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G81" s="10"/>
     </row>
@@ -2454,14 +2454,14 @@
       <c r="A82" s="21">
         <v>66</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="45" t="s">
+      <c r="B82" s="43"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="10"/>
     </row>
@@ -2469,14 +2469,14 @@
       <c r="A83" s="21">
         <v>67</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="45" t="s">
+      <c r="B83" s="43"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -2484,14 +2484,14 @@
       <c r="A84" s="21">
         <v>68</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="45" t="s">
+      <c r="B84" s="43"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G84" s="10"/>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="A85" s="21">
         <v>69</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="24" t="s">
+      <c r="B85" s="43"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="32" t="s">
         <v>64</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -2516,10 +2516,10 @@
       <c r="A86" s="21">
         <v>70</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="12" t="s">
         <v>27</v>
       </c>
@@ -2529,14 +2529,14 @@
       <c r="A87" s="21">
         <v>71</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G87" s="15"/>
     </row>
@@ -2544,27 +2544,29 @@
       <c r="A88" s="21">
         <v>72</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C67:C88"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D19:D35"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B4:B88"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C4:C66"/>
+    <mergeCell ref="D72:D74"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E49"/>
@@ -2576,22 +2578,20 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="C67:C88"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="D19:D35"/>
+    <mergeCell ref="E41:E43"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="D78:D80"/>
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="E64:E66"/>
     <mergeCell ref="D44:D54"/>
-    <mergeCell ref="B4:B88"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C4:C66"/>
-    <mergeCell ref="D72:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
@@ -396,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 페이지에서 해당 상품의 별점을 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세정보에서 선물하기 기능이 있어야 하며 선물을 보낼 대상에게 이메일을 전송할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,10 +461,6 @@
   </si>
   <si>
     <t>현재 비밀번호와 신규 비밀번호가 달라야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지에서 내가 찜을 누른 상품들에 대하여 확인할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,92 +569,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이메일 인증 확인 버튼 클릭 시, 입력한 이메일로 인증메세지를 전송한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인시 이메일 비밀번호 입력이 가능해야한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[아이디 저장] 로그아웃 후 다시 접속했을 때 기존 이메일이 저장되어 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 글에 비밀댓글, 대댓글을 달 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
+  </si>
+  <si>
+    <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 로그인 페이지에서 로그인 로그아웃이 가능해야 하며, 이메일 찾기 비밀번호 찾기가 가능해야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 회원가입이 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 확인, 수정이 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 또는 내용으로 검색이 가능해야 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">등록된 게시글이 10개 초과인 경우 다음 목록으로 이동하여 모든 게시글을 볼 수 있어야 한다. </t>
+  </si>
+  <si>
+    <t>중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보에서 찜 기능이 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[브라보 마이 라이프] 기능 요구사항 명세서(3차 초안)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이메일 인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증 확인 버튼 클릭 시, 입력한 이메일로 인증메세지를 전송한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인시 이메일 비밀번호 입력이 가능해야한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[아이디 저장] 로그아웃 후 다시 접속했을 때 기존 이메일이 저장되어 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 글에 비밀댓글, 대댓글을 달 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
-  </si>
-  <si>
-    <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관리자 로그인 페이지에서 로그인 로그아웃이 가능해야 하며, 이메일 찾기 비밀번호 찾기가 가능해야 한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 회원가입이 가능해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 정보 확인, 수정이 가능해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목 또는 내용으로 검색이 가능해야 한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">등록된 게시글이 10개 초과인 경우 다음 목록으로 이동하여 모든 게시글을 볼 수 있어야 한다. </t>
-  </si>
-  <si>
-    <t>중복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보에서 찜 기능이 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[브라보 마이 라이프] 기능 요구사항 명세서(3차 초안)</t>
+    <t>마이 페이지에서 내가 찜을 누른 상품들에 대하여 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 페이지에서 해당 상품의 별점을 넣을 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,6 +947,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,34 +962,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -991,6 +973,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1298,15 +1298,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="A1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1344,20 +1344,20 @@
       <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -1365,9 +1365,9 @@
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="23" t="s">
         <v>42</v>
       </c>
@@ -1378,14 +1378,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="22" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G6" s="23"/>
     </row>
@@ -1393,10 +1393,10 @@
       <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1408,12 +1408,12 @@
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1421,14 +1421,14 @@
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -1436,9 +1436,9 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
@@ -1449,27 +1449,27 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>136</v>
+      <c r="E11" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1477,10 +1477,10 @@
       <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1492,10 +1492,10 @@
       <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1505,14 +1505,14 @@
       <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -1520,10 +1520,10 @@
       <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1533,12 +1533,12 @@
       <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -1546,29 +1546,29 @@
       <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="32" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -1576,10 +1576,10 @@
       <c r="A20" s="21">
         <v>13</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1591,12 +1591,12 @@
       <c r="A21" s="21">
         <v>14</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -1604,11 +1604,11 @@
       <c r="A22" s="21">
         <v>15</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32" t="s">
-        <v>154</v>
+      <c r="B22" s="32"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
@@ -1619,10 +1619,10 @@
       <c r="A23" s="21">
         <v>16</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="A24" s="21">
         <v>17</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
@@ -1645,10 +1645,10 @@
       <c r="A25" s="21">
         <v>18</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="5" t="s">
         <v>81</v>
       </c>
@@ -1658,14 +1658,14 @@
       <c r="A26" s="21">
         <v>19</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -1673,12 +1673,12 @@
       <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -1686,14 +1686,14 @@
       <c r="A28" s="21">
         <v>21</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="28" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -1701,10 +1701,10 @@
       <c r="A29" s="21">
         <v>22</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="38" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -1716,12 +1716,12 @@
       <c r="A30" s="21">
         <v>23</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="40"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1729,14 +1729,14 @@
       <c r="A31" s="21">
         <v>24</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -1744,14 +1744,14 @@
       <c r="A32" s="21">
         <v>25</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="38" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G32" s="13"/>
     </row>
@@ -1759,10 +1759,10 @@
       <c r="A33" s="21">
         <v>26</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="5" t="s">
         <v>80</v>
       </c>
@@ -1772,12 +1772,12 @@
       <c r="A34" s="21">
         <v>27</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1785,9 +1785,9 @@
       <c r="A35" s="21">
         <v>28</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="27" t="s">
         <v>85</v>
       </c>
@@ -1800,16 +1800,16 @@
       <c r="A36" s="21">
         <v>29</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>140</v>
+      <c r="E36" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -1817,10 +1817,10 @@
       <c r="A37" s="21">
         <v>30</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="5" t="s">
         <v>47</v>
       </c>
@@ -1828,12 +1828,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G38" s="23"/>
     </row>
@@ -1841,9 +1841,9 @@
       <c r="A39" s="21">
         <v>31</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="33"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="18" t="s">
         <v>88</v>
       </c>
@@ -1856,9 +1856,9 @@
       <c r="A40" s="21">
         <v>32</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="22" t="s">
         <v>89</v>
       </c>
@@ -1869,25 +1869,25 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="32" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G42" s="23"/>
     </row>
@@ -1895,12 +1895,12 @@
       <c r="A43" s="21">
         <v>33</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" s="10"/>
     </row>
@@ -1908,12 +1908,12 @@
       <c r="A44" s="21">
         <v>34</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="32" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="34" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="14" t="s">
@@ -1925,12 +1925,12 @@
       <c r="A45" s="21">
         <v>35</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -1938,10 +1938,10 @@
       <c r="A46" s="21">
         <v>36</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="32" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -1953,10 +1953,10 @@
       <c r="A47" s="21">
         <v>37</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="12" t="s">
         <v>91</v>
       </c>
@@ -1966,12 +1966,12 @@
       <c r="A48" s="21">
         <v>38</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="12" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="G48" s="10"/>
     </row>
@@ -1979,12 +1979,12 @@
       <c r="A49" s="21">
         <v>39</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -1992,14 +1992,14 @@
       <c r="A50" s="21">
         <v>40</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="32" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="34" t="s">
         <v>37</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G50" s="13"/>
     </row>
@@ -2007,12 +2007,12 @@
       <c r="A51" s="21">
         <v>41</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="13"/>
     </row>
@@ -2020,12 +2020,12 @@
       <c r="A52" s="21">
         <v>42</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="13"/>
     </row>
@@ -2033,10 +2033,10 @@
       <c r="A53" s="21">
         <v>43</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="17" t="s">
         <v>38</v>
       </c>
@@ -2046,12 +2046,12 @@
       <c r="A54" s="21">
         <v>44</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -2059,9 +2059,9 @@
       <c r="A55" s="21">
         <v>45</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="32" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="15" t="s">
@@ -2076,9 +2076,9 @@
       <c r="A56" s="21">
         <v>46</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="15" t="s">
         <v>22</v>
       </c>
@@ -2091,14 +2091,14 @@
       <c r="A57" s="21">
         <v>47</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="32" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="34" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -2106,10 +2106,10 @@
       <c r="A58" s="21">
         <v>48</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="5" t="s">
         <v>24</v>
       </c>
@@ -2119,12 +2119,12 @@
       <c r="A59" s="21">
         <v>49</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
       <c r="F59" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -2132,12 +2132,12 @@
       <c r="A60" s="21">
         <v>50</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G60" s="13"/>
     </row>
@@ -2145,29 +2145,29 @@
       <c r="A61" s="21">
         <v>51</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="33"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="35" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="42" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G62" s="23"/>
     </row>
@@ -2175,14 +2175,14 @@
       <c r="A63" s="21">
         <v>52</v>
       </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="36"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G63" s="15"/>
     </row>
@@ -2190,14 +2190,14 @@
       <c r="A64" s="21">
         <v>53</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="41" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="45" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G64" s="15"/>
     </row>
@@ -2205,12 +2205,12 @@
       <c r="A65" s="21">
         <v>54</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="42"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G65" s="15"/>
     </row>
@@ -2218,10 +2218,10 @@
       <c r="A66" s="21">
         <v>55</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="42"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="20" t="s">
         <v>76</v>
       </c>
@@ -2229,66 +2229,66 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="32" t="s">
+      <c r="B67" s="32"/>
+      <c r="C67" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>136</v>
+      <c r="D67" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G67" s="23"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G68" s="23"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G71" s="23"/>
     </row>
@@ -2296,9 +2296,9 @@
       <c r="A72" s="21">
         <v>56</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="32" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E72" s="15" t="s">
@@ -2313,14 +2313,14 @@
       <c r="A73" s="21">
         <v>57</v>
       </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G73" s="10"/>
     </row>
@@ -2328,9 +2328,9 @@
       <c r="A74" s="21">
         <v>58</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="15" t="s">
         <v>51</v>
       </c>
@@ -2343,16 +2343,16 @@
       <c r="A75" s="21">
         <v>59</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="32" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G75" s="10"/>
     </row>
@@ -2360,14 +2360,14 @@
       <c r="A76" s="21">
         <v>60</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G76" s="10"/>
     </row>
@@ -2375,14 +2375,14 @@
       <c r="A77" s="21">
         <v>61</v>
       </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G77" s="10"/>
     </row>
@@ -2390,16 +2390,16 @@
       <c r="A78" s="21">
         <v>62</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="32" t="s">
+      <c r="B78" s="32"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G78" s="10"/>
     </row>
@@ -2407,14 +2407,14 @@
       <c r="A79" s="21">
         <v>63</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G79" s="10"/>
     </row>
@@ -2422,14 +2422,14 @@
       <c r="A80" s="21">
         <v>64</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G80" s="10"/>
     </row>
@@ -2437,16 +2437,16 @@
       <c r="A81" s="21">
         <v>65</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="32" t="s">
+      <c r="B81" s="32"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G81" s="10"/>
     </row>
@@ -2454,14 +2454,14 @@
       <c r="A82" s="21">
         <v>66</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G82" s="10"/>
     </row>
@@ -2469,14 +2469,14 @@
       <c r="A83" s="21">
         <v>67</v>
       </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -2484,14 +2484,14 @@
       <c r="A84" s="21">
         <v>68</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G84" s="10"/>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="A85" s="21">
         <v>69</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="32" t="s">
+      <c r="B85" s="32"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="34" t="s">
         <v>64</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -2516,10 +2516,10 @@
       <c r="A86" s="21">
         <v>70</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="12" t="s">
         <v>27</v>
       </c>
@@ -2529,14 +2529,14 @@
       <c r="A87" s="21">
         <v>71</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G87" s="15"/>
     </row>
@@ -2544,19 +2544,38 @@
       <c r="A88" s="21">
         <v>72</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="C67:C88"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="D19:D35"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="D44:D54"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="B4:B88"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D4:D10"/>
@@ -2573,25 +2592,6 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E50:E54"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C67:C88"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D19:D35"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="D44:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\30.analysis\320.environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[브라보 마이 라이프] 기능 요구사항 명세서(2차 초안)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[좋아요] 상단에서 좋아요 아이콘을  표시한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,6 +590,10 @@
   </si>
   <si>
     <t>회원들이 입력한 맞춤 건강 추천 결괏값을 통계로 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[브라보 마이 라이프] 기능 요구사항 명세서(3차 초안)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,10 +842,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1158,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1216,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -1257,9 +1257,9 @@
       <c r="B7" s="28"/>
       <c r="C7" s="31"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="B13" s="28"/>
       <c r="C13" s="31"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="9" t="s">
         <v>12</v>
       </c>
@@ -1358,9 +1358,9 @@
       <c r="B14" s="28"/>
       <c r="C14" s="31"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -1402,10 +1402,10 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
@@ -1430,8 +1430,8 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1443,8 +1443,8 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="5" t="s">
         <v>91</v>
       </c>
@@ -1456,8 +1456,8 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="5" t="s">
         <v>84</v>
       </c>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -1484,10 +1484,10 @@
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="27"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="25" t="s">
         <v>18</v>
       </c>
@@ -1527,10 +1527,10 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="14"/>
     </row>
@@ -1540,12 +1540,12 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="14" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="14"/>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="14"/>
     </row>
@@ -1570,8 +1570,8 @@
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="5" t="s">
         <v>83</v>
       </c>
@@ -1583,10 +1583,10 @@
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="14"/>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="14" t="s">
         <v>88</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="16"/>
     </row>
@@ -1628,8 +1628,8 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="5" t="s">
         <v>49</v>
       </c>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="21" t="s">
         <v>92</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="20" t="s">
         <v>93</v>
       </c>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="26"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -1703,10 +1703,10 @@
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="25" t="s">
         <v>37</v>
       </c>
@@ -1731,8 +1731,8 @@
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="12" t="s">
         <v>95</v>
       </c>
@@ -1744,8 +1744,8 @@
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="12" t="s">
         <v>96</v>
       </c>
@@ -1757,10 +1757,10 @@
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G42" s="10"/>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="31"/>
-      <c r="D43" s="27"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="25" t="s">
         <v>38</v>
       </c>
@@ -1785,8 +1785,8 @@
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="19" t="s">
         <v>97</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="19" t="s">
         <v>98</v>
       </c>
@@ -1811,8 +1811,8 @@
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="19" t="s">
         <v>40</v>
       </c>
@@ -1824,10 +1824,10 @@
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G47" s="14"/>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="27"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="16" t="s">
         <v>23</v>
       </c>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="27"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G50" s="14"/>
     </row>
@@ -1884,8 +1884,8 @@
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="5" t="s">
         <v>25</v>
       </c>
@@ -1897,10 +1897,10 @@
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="14"/>
     </row>
@@ -1910,10 +1910,10 @@
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="14"/>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B54" s="28"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="27"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="16" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>75</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" s="16"/>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="27"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="25" t="s">
         <v>77</v>
       </c>
@@ -1970,8 +1970,8 @@
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="23" t="s">
         <v>101</v>
       </c>
@@ -1983,8 +1983,8 @@
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="23" t="s">
         <v>79</v>
       </c>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G60" s="10"/>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="26"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="16" t="s">
         <v>53</v>
       </c>
@@ -2062,12 +2062,12 @@
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G63" s="10"/>
     </row>
@@ -2077,12 +2077,12 @@
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="26"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G64" s="10"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G65" s="10"/>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="10"/>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="26"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G67" s="10"/>
     </row>
@@ -2146,7 +2146,7 @@
         <v>70</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G68" s="10"/>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G69" s="10"/>
     </row>
@@ -2171,12 +2171,12 @@
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="27"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G70" s="16"/>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="26"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G71" s="10"/>
     </row>
@@ -2218,8 +2218,8 @@
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="12" t="s">
         <v>28</v>
       </c>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="27"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="18" t="s">
         <v>74</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G74" s="16"/>
     </row>
@@ -2246,17 +2246,32 @@
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="26"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E56:E58"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="D37:D47"/>
     <mergeCell ref="D16:D31"/>
@@ -2273,21 +2288,6 @@
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="C4:C58"/>
     <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항(3차 초안).xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 페이지에서 구매 버튼 클릭 시 구매 페이지로 이동할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자주 찾는 질문들에 대하여 리스트 업 형태로 제목을 누르면 상세 내용이 나와야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개인 정보 확인/수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문의 이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,14 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맞춤 건강 추천 결과표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지에서 현재 건강 상태에 대한 결과표를 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이 페이지에서 구매한 상품들에 대해 배송 현황을 확인할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제 수단에 대해 카드 결제, 카카오페이, 네이버페이를 선택할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매자의 건강 상태와 선호하는 건강기능식품을 조사하기 위해 회원들을 대상으로 설문 조사를 진행해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +397,6 @@
   </si>
   <si>
     <t>이미지, 내용, 작성자, 작성일, 별점 등을 볼 수 있게 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[브라보 마이 라이프] 기능 요구사항 명세서(2차 초안)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,10 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 페이지에서 구매 버튼 클릭 시 장바구니가 비어있다면 알림 창을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니 페이지에서 총 주문금액을 확인할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록된 글에 비밀댓글, 대댓글을 달 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고객 문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,6 +627,42 @@
   </si>
   <si>
     <t>상세정보에서 찜 기능이 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 글에 비밀댓글을 달 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 확인/수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 건강 추천 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 마지막으로 검사한 건강 상태에 대한 결과를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지에서 주문하기 버튼 클릭 시 장바구니가 비어있다면 알림 창을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지에서 주문하기 버튼 클릭 시 결제 페이지로 이동할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매(결제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단에 대해 카드 결제, 카카오페이, 네이버페이를 선택할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[브라보 마이 라이프] 기능 요구사항 명세서(3차 초안)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAEFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88CD85"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +929,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +960,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -944,52 +998,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,9 +1013,9 @@
   <colors>
     <mruColors>
       <color rgb="FFDAEFD9"/>
+      <color rgb="FF88CD85"/>
       <color rgb="FF9AD597"/>
       <color rgb="FFC8E8C6"/>
-      <color rgb="FF88CD85"/>
       <color rgb="FF4CAF47"/>
     </mruColors>
   </colors>
@@ -1283,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,15 +1310,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1331,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -1344,20 +1356,20 @@
       <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -1365,27 +1377,27 @@
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G6" s="23"/>
     </row>
@@ -1393,11 +1405,11 @@
       <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24" t="s">
-        <v>32</v>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1408,12 +1420,12 @@
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1421,14 +1433,14 @@
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -1436,40 +1448,40 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>137</v>
+      <c r="E11" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1477,14 +1489,14 @@
       <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -1492,10 +1504,10 @@
       <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1505,14 +1517,14 @@
       <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -1520,10 +1532,10 @@
       <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1533,12 +1545,12 @@
       <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -1546,29 +1558,29 @@
       <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -1576,14 +1588,14 @@
       <c r="A20" s="21">
         <v>13</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24" t="s">
-        <v>77</v>
+      <c r="B20" s="43"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" s="19"/>
     </row>
@@ -1591,12 +1603,12 @@
       <c r="A21" s="21">
         <v>14</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -1604,11 +1616,11 @@
       <c r="A22" s="21">
         <v>15</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24" t="s">
-        <v>155</v>
+      <c r="B22" s="43"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
@@ -1619,10 +1631,10 @@
       <c r="A23" s="21">
         <v>16</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
@@ -1632,12 +1644,12 @@
       <c r="A24" s="21">
         <v>17</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G24" s="19"/>
     </row>
@@ -1645,12 +1657,12 @@
       <c r="A25" s="21">
         <v>18</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -1658,14 +1670,14 @@
       <c r="A26" s="21">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
-        <v>84</v>
+      <c r="B26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -1673,12 +1685,12 @@
       <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -1686,14 +1698,14 @@
       <c r="A28" s="21">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="40" t="s">
-        <v>83</v>
+      <c r="B28" s="43"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -1701,14 +1713,14 @@
       <c r="A29" s="21">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="41" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="10"/>
     </row>
@@ -1716,12 +1728,12 @@
       <c r="A30" s="21">
         <v>23</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1729,14 +1741,14 @@
       <c r="A31" s="21">
         <v>24</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -1744,14 +1756,14 @@
       <c r="A32" s="21">
         <v>25</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="41" t="s">
-        <v>79</v>
+      <c r="B32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G32" s="13"/>
     </row>
@@ -1759,12 +1771,12 @@
       <c r="A33" s="21">
         <v>26</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G33" s="13"/>
     </row>
@@ -1772,12 +1784,12 @@
       <c r="A34" s="21">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1785,14 +1797,14 @@
       <c r="A35" s="21">
         <v>28</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="39" t="s">
-        <v>85</v>
+      <c r="B35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -1800,16 +1812,16 @@
       <c r="A36" s="21">
         <v>29</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>141</v>
+      <c r="E36" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -1817,23 +1829,23 @@
       <c r="A37" s="21">
         <v>30</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="5" t="s">
-        <v>140</v>
+      <c r="B38" s="43"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="G38" s="23"/>
     </row>
@@ -1841,14 +1853,14 @@
       <c r="A39" s="21">
         <v>31</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39" s="10"/>
     </row>
@@ -1856,38 +1868,38 @@
       <c r="A40" s="21">
         <v>32</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24" t="s">
-        <v>90</v>
+      <c r="B41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G42" s="23"/>
     </row>
@@ -1895,12 +1907,12 @@
       <c r="A43" s="21">
         <v>33</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G43" s="10"/>
     </row>
@@ -1908,16 +1920,16 @@
       <c r="A44" s="21">
         <v>34</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="G44" s="10"/>
     </row>
@@ -1925,12 +1937,12 @@
       <c r="A45" s="21">
         <v>35</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -1938,14 +1950,14 @@
       <c r="A46" s="21">
         <v>36</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24" t="s">
-        <v>36</v>
+      <c r="B46" s="43"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" s="10"/>
     </row>
@@ -1953,12 +1965,12 @@
       <c r="A47" s="21">
         <v>37</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="12" t="s">
-        <v>91</v>
+      <c r="B47" s="43"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="G47" s="19"/>
     </row>
@@ -1966,12 +1978,12 @@
       <c r="A48" s="21">
         <v>38</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="12" t="s">
-        <v>92</v>
+      <c r="B48" s="43"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="G48" s="10"/>
     </row>
@@ -1979,12 +1991,12 @@
       <c r="A49" s="21">
         <v>39</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -1992,14 +2004,14 @@
       <c r="A50" s="21">
         <v>40</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>156</v>
+      <c r="B50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="G50" s="13"/>
     </row>
@@ -2007,12 +2019,12 @@
       <c r="A51" s="21">
         <v>41</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="38" t="s">
-        <v>93</v>
+      <c r="B51" s="43"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="G51" s="13"/>
     </row>
@@ -2020,12 +2032,12 @@
       <c r="A52" s="21">
         <v>42</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G52" s="13"/>
     </row>
@@ -2033,12 +2045,12 @@
       <c r="A53" s="21">
         <v>43</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="13"/>
     </row>
@@ -2046,12 +2058,12 @@
       <c r="A54" s="21">
         <v>44</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="44" t="s">
-        <v>119</v>
+      <c r="B54" s="43"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -2059,10 +2071,10 @@
       <c r="A55" s="21">
         <v>45</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="24" t="s">
-        <v>44</v>
+      <c r="B55" s="43"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>20</v>
@@ -2076,9 +2088,9 @@
       <c r="A56" s="21">
         <v>46</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="15" t="s">
         <v>22</v>
       </c>
@@ -2091,14 +2103,14 @@
       <c r="A57" s="21">
         <v>47</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="24" t="s">
-        <v>45</v>
+      <c r="B57" s="43"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -2106,12 +2118,12 @@
       <c r="A58" s="21">
         <v>48</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="5" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="G58" s="13"/>
     </row>
@@ -2119,12 +2131,12 @@
       <c r="A59" s="21">
         <v>49</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -2132,12 +2144,12 @@
       <c r="A60" s="21">
         <v>50</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G60" s="13"/>
     </row>
@@ -2145,29 +2157,29 @@
       <c r="A61" s="21">
         <v>51</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="25"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="32" t="s">
-        <v>75</v>
+      <c r="B62" s="43"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G62" s="23"/>
     </row>
@@ -2175,14 +2187,14 @@
       <c r="A63" s="21">
         <v>52</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="35" t="s">
-        <v>72</v>
+      <c r="B63" s="43"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G63" s="15"/>
     </row>
@@ -2190,14 +2202,14 @@
       <c r="A64" s="21">
         <v>53</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="36" t="s">
-        <v>74</v>
+      <c r="B64" s="43"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G64" s="15"/>
     </row>
@@ -2205,12 +2217,12 @@
       <c r="A65" s="21">
         <v>54</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="37"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G65" s="15"/>
     </row>
@@ -2218,77 +2230,77 @@
       <c r="A66" s="21">
         <v>55</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="37"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>137</v>
+      <c r="B67" s="43"/>
+      <c r="C67" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G67" s="23"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G68" s="23"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="31" t="s">
-        <v>143</v>
+      <c r="B69" s="43"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G71" s="23"/>
     </row>
@@ -2296,16 +2308,16 @@
       <c r="A72" s="21">
         <v>56</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="24" t="s">
-        <v>49</v>
+      <c r="B72" s="43"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G72" s="10"/>
     </row>
@@ -2313,14 +2325,14 @@
       <c r="A73" s="21">
         <v>57</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G73" s="10"/>
     </row>
@@ -2328,14 +2340,14 @@
       <c r="A74" s="21">
         <v>58</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G74" s="10"/>
     </row>
@@ -2343,16 +2355,16 @@
       <c r="A75" s="21">
         <v>59</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="24" t="s">
-        <v>53</v>
+      <c r="B75" s="43"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="G75" s="10"/>
     </row>
@@ -2360,14 +2372,14 @@
       <c r="A76" s="21">
         <v>60</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G76" s="10"/>
     </row>
@@ -2375,14 +2387,14 @@
       <c r="A77" s="21">
         <v>61</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G77" s="10"/>
     </row>
@@ -2390,16 +2402,16 @@
       <c r="A78" s="21">
         <v>62</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24" t="s">
-        <v>57</v>
+      <c r="B78" s="43"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G78" s="10"/>
     </row>
@@ -2407,14 +2419,14 @@
       <c r="A79" s="21">
         <v>63</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G79" s="10"/>
     </row>
@@ -2422,14 +2434,14 @@
       <c r="A80" s="21">
         <v>64</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G80" s="10"/>
     </row>
@@ -2437,16 +2449,16 @@
       <c r="A81" s="21">
         <v>65</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>67</v>
+      <c r="B81" s="43"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G81" s="10"/>
     </row>
@@ -2454,14 +2466,14 @@
       <c r="A82" s="21">
         <v>66</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="45" t="s">
-        <v>68</v>
+      <c r="B82" s="43"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G82" s="10"/>
     </row>
@@ -2469,14 +2481,14 @@
       <c r="A83" s="21">
         <v>67</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="45" t="s">
-        <v>70</v>
+      <c r="B83" s="43"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -2484,14 +2496,14 @@
       <c r="A84" s="21">
         <v>68</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="45" t="s">
-        <v>69</v>
+      <c r="B84" s="43"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G84" s="10"/>
     </row>
@@ -2499,16 +2511,16 @@
       <c r="A85" s="21">
         <v>69</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="24" t="s">
+      <c r="B85" s="43"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="G85" s="10"/>
     </row>
@@ -2516,12 +2528,12 @@
       <c r="A86" s="21">
         <v>70</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="10"/>
     </row>
@@ -2529,14 +2541,14 @@
       <c r="A87" s="21">
         <v>71</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G87" s="15"/>
     </row>
@@ -2544,27 +2556,29 @@
       <c r="A88" s="21">
         <v>72</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C67:C88"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D19:D35"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B4:B88"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C4:C66"/>
+    <mergeCell ref="D72:D74"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E49"/>
@@ -2576,22 +2590,20 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="C67:C88"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="D19:D35"/>
+    <mergeCell ref="E41:E43"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="D78:D80"/>
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="E64:E66"/>
     <mergeCell ref="D44:D54"/>
-    <mergeCell ref="B4:B88"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C4:C66"/>
-    <mergeCell ref="D72:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
